--- a/Data/Fall_Armyworm_Data.xlsx
+++ b/Data/Fall_Armyworm_Data.xlsx
@@ -1,18 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data Science Library/Data for play/Fall-Armyworm-control--/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A13B55-D9C9-E84E-8873-9A40B5E7D77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="BB" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="AA" sheetId="2" r:id="rId5"/>
+    <sheet name="BB" sheetId="1" r:id="rId1"/>
+    <sheet name="AA" sheetId="2" r:id="rId2"/>
+    <sheet name="merged_data" sheetId="3" r:id="rId3"/>
+    <sheet name="weekly_data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
   <si>
     <t>Treatment</t>
   </si>
@@ -99,21 +121,39 @@
   </si>
   <si>
     <t>B2R2</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 2 </t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -123,11 +163,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -141,36 +187,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -360,20 +407,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,566 +493,569 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,551 +1123,2196 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336E3E9A-1CB4-0C46-971B-ADB2BFB48ECC}">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>SUM(N2:P2)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q16" si="0">SUM(N3:P3)</f>
+        <v>4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>2</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>SUM(N17:P17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62CE3D4-F46F-F64A-95E3-F46BEF012356}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Fall_Armyworm_Data.xlsx
+++ b/Data/Fall_Armyworm_Data.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data Science Library/Data for play/Fall-Armyworm-control--/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esmael/Desktop/Data Science Library/Data for play/Fall-Armyworm-control/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A13B55-D9C9-E84E-8873-9A40B5E7D77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2262416-4AD8-A543-AC56-206D4CA5CC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BB" sheetId="1" r:id="rId1"/>
     <sheet name="AA" sheetId="2" r:id="rId2"/>
     <sheet name="merged_data" sheetId="3" r:id="rId3"/>
     <sheet name="weekly_data" sheetId="4" r:id="rId4"/>
+    <sheet name="other insects" sheetId="5" r:id="rId5"/>
+    <sheet name="other insects weekly" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
   <si>
     <t>Treatment</t>
   </si>
@@ -145,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -156,6 +158,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,12 +201,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2912,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62CE3D4-F46F-F64A-95E3-F46BEF012356}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3315,4 +3324,1581 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDF57D5-8B09-C346-BAB4-47EC468F4B13}">
+  <dimension ref="A1:V17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>2</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>2</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>3</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2BB16B-8C9C-914B-AF7D-5B73FDBF449B}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Fall_Armyworm_Data.xlsx
+++ b/Data/Fall_Armyworm_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esmael/Desktop/Data Science Library/Data for play/Fall-Armyworm-control/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2262416-4AD8-A543-AC56-206D4CA5CC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C77F8A2-E74C-FB46-82E2-0ED7808452EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="AA" sheetId="2" r:id="rId2"/>
     <sheet name="merged_data" sheetId="3" r:id="rId3"/>
     <sheet name="weekly_data" sheetId="4" r:id="rId4"/>
-    <sheet name="other insects" sheetId="5" r:id="rId5"/>
-    <sheet name="other insects weekly" sheetId="6" r:id="rId6"/>
+    <sheet name="other_insects" sheetId="5" r:id="rId5"/>
+    <sheet name="other_insects_weekly" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Data/Fall_Armyworm_Data.xlsx
+++ b/Data/Fall_Armyworm_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esmael/Desktop/Data Science Library/Data for play/Fall-Armyworm-control/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C77F8A2-E74C-FB46-82E2-0ED7808452EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E2A2F-AF90-A546-A43C-E83684550DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1683,15 +1683,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336E3E9A-1CB4-0C46-971B-ADB2BFB48ECC}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1740,27 +1740,26 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1810,7 +1809,6 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <f>SUM(N2:P2)</f>
         <v>0</v>
       </c>
       <c r="R2" s="2">
@@ -1828,11 +1826,8 @@
       <c r="V2" s="2">
         <v>0</v>
       </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1882,29 +1877,25 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q16" si="0">SUM(N3:P3)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="2">
         <v>0</v>
       </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1954,7 +1945,6 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4" s="2">
@@ -1972,11 +1962,8 @@
       <c r="V4" s="2">
         <v>0</v>
       </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -2026,17 +2013,16 @@
         <v>2</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S5" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -2044,11 +2030,8 @@
       <c r="V5" s="2">
         <v>0</v>
       </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2081,6 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6" s="2">
@@ -2116,11 +2098,8 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2170,17 +2149,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -2188,11 +2166,8 @@
       <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2242,7 +2217,6 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="2">
@@ -2260,11 +2234,8 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2314,7 +2285,6 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R9" s="2">
@@ -2332,11 +2302,8 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2386,7 +2353,6 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="2">
@@ -2404,11 +2370,8 @@
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2458,8 +2421,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2476,11 +2438,8 @@
       <c r="V11" s="2">
         <v>0</v>
       </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2530,7 +2489,6 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" s="2">
@@ -2548,11 +2506,8 @@
       <c r="V12" s="2">
         <v>0</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2602,7 +2557,6 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R13" s="2">
@@ -2620,11 +2574,8 @@
       <c r="V13" s="2">
         <v>0</v>
       </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2674,8 +2625,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2692,11 +2642,8 @@
       <c r="V14" s="2">
         <v>0</v>
       </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2746,7 +2693,6 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R15" s="2">
@@ -2764,11 +2710,8 @@
       <c r="V15" s="2">
         <v>0</v>
       </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2818,7 +2761,6 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R16" s="2">
@@ -2836,11 +2778,8 @@
       <c r="V16" s="2">
         <v>0</v>
       </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -2890,7 +2829,6 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <f>SUM(N17:P17)</f>
         <v>0</v>
       </c>
       <c r="R17" s="2">
@@ -2906,9 +2844,6 @@
         <v>0</v>
       </c>
       <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2922,7 +2857,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3331,7 +3266,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Data/Fall_Armyworm_Data.xlsx
+++ b/Data/Fall_Armyworm_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esmael/Desktop/Data Science Library/Data for play/Fall-Armyworm-control/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E2A2F-AF90-A546-A43C-E83684550DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0120BA64-57B2-334B-AA9B-38EB8053B757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="AA" sheetId="2" r:id="rId2"/>
     <sheet name="merged_data" sheetId="3" r:id="rId3"/>
     <sheet name="weekly_data" sheetId="4" r:id="rId4"/>
-    <sheet name="other_insects" sheetId="5" r:id="rId5"/>
-    <sheet name="other_insects_weekly" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="other_insects" sheetId="5" r:id="rId6"/>
+    <sheet name="other_insects_weekly" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="38">
   <si>
     <t>Treatment</t>
   </si>
@@ -141,6 +142,15 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>FARM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1069,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1683,15 +1693,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336E3E9A-1CB4-0C46-971B-ADB2BFB48ECC}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1758,8 +1768,9 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1827,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1895,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1963,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -2031,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2099,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2167,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2235,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2303,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2371,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -2439,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2507,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2575,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2643,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2711,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2857,7 +2868,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3262,10 +3273,467 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE7E502-66FB-7842-B1CC-E29C2D281F3D}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDF57D5-8B09-C346-BAB4-47EC468F4B13}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4432,7 +4900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2BB16B-8C9C-914B-AF7D-5B73FDBF449B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
